--- a/Documentação/Planilhas/CUBOS_MIS_OLAP.xlsx
+++ b/Documentação/Planilhas/CUBOS_MIS_OLAP.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAP_Departamento" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
+    <sheet name="Gestão ICMS" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="97" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="19" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -24,11 +25,15 @@
     <dbPr connection="Provider=MSOLAP.4;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=MIS_OLAP;Data Source=10.128.132.65\HASONLINE01;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error" command="CAP Departamento" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
+  <connection id="2" odcFile="C:\Users\rosana.prignolato\Documents\Minhas fontes de dados\MIS_OLAP_JUVENTUS.odc" keepAlive="1" name="MIS_OLAP_JUVENTUS1" type="5" refreshedVersion="3" background="1">
+    <dbPr connection="Provider=MSOLAP.4;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=MIS_OLAP;Data Source=10.128.132.65\HASONLINE01;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error" command="Gestao ICMS" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Rótulos de Linha</t>
   </si>
@@ -56,6 +61,26 @@
   <si>
     <t>Prazo a Ponderar</t>
   </si>
+  <si>
+    <t>Nordeste</t>
+  </si>
+  <si>
+    <t>Sudeste</t>
+  </si>
+  <si>
+    <t>Qtde Fat</t>
+  </si>
+  <si>
+    <t>Vl Base Icms</t>
+  </si>
+  <si>
+    <t>Vl Cred Icms</t>
+  </si>
+  <si>
+    <t>stg_gestao_icms_ln.dtsx ==&gt; no DTF (ICMS Fat) comentada a rotina original do WHERE em "Faturamento Valor" e "Faturamento Qtde" para podermos gerar dados de testes para o processamento do cubo
+como a tabela mis_dw.dbo.ods_fatdev foi copiada, deletei da tabela "mis_ods.com.ods_gestao_icms" os cfops '59498' e '69497', pois os mesmos não existem na
+tabela mis_dw.dbo.dim_cfop. Se rodar a rotina de carga novamente sem gerar a fatdev, teremos que eliminar esses cfops para não dar erro no processamento do cubo.</t>
+  </si>
 </sst>
 </file>
 
@@ -70,12 +95,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,24 +121,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="rosana.prignolato" refreshedDate="41942.652585069445" backgroundQuery="1" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="rosana.prignolato" refreshedDate="41946.612854513885" backgroundQuery="1" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="5">
     <cacheField name="[Dim Estabelecimento].[Estabelecimento].[Filial]" caption="Filial" numFmtId="0" hierarchy="42" level="1">
@@ -265,8 +307,135 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="rosana.prignolato" refreshedDate="41946.613311458335" backgroundQuery="1" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="2"/>
+  <cacheFields count="6">
+    <cacheField name="[Dim UF].[UF].[Região]" caption="Região" numFmtId="0" hierarchy="47" level="1">
+      <sharedItems count="2">
+        <s v="[Dim UF].[UF].[Região].&amp;[Nordeste]" c="Nordeste"/>
+        <s v="[Dim UF].[UF].[Região].&amp;[Sudeste]" c="Sudeste"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim UF].[UF].[UF]" caption="UF" numFmtId="0" hierarchy="47" level="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Dim UF].[UF].[UF].[Ds Regiao]" caption="Ds Regiao" propertyName="Ds Regiao" numFmtId="0" hierarchy="47" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Measures].[Qtde Fat]" caption="Qtde Fat" numFmtId="0" hierarchy="54" level="32767"/>
+    <cacheField name="[Measures].[Vl Base Icms]" caption="Vl Base Icms" numFmtId="0" hierarchy="53" level="32767"/>
+    <cacheField name="[Measures].[Vl Cred Icms]" caption="Vl Cred Icms" numFmtId="0" hierarchy="58" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="65">
+    <cacheHierarchy uniqueName="[Dim Cfop].[Cfop]" caption="Cfop" defaultMemberUniqueName="[Dim Cfop].[Cfop].[All]" allUniqueName="[Dim Cfop].[Cfop].[All]" dimensionUniqueName="[Dim Cfop]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Cfop].[Dim Cfop]" caption="Dim Cfop" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Cfop].[Dim Cfop].[All]" allUniqueName="[Dim Cfop].[Dim Cfop].[All]" dimensionUniqueName="[Dim Cfop]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Cfop].[Ds Id Tipope]" caption="Ds Id Tipope" attribute="1" defaultMemberUniqueName="[Dim Cfop].[Ds Id Tipope].[All]" allUniqueName="[Dim Cfop].[Ds Id Tipope].[All]" dimensionUniqueName="[Dim Cfop]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Cfop].[Ds Nome]" caption="Ds Nome" attribute="1" defaultMemberUniqueName="[Dim Cfop].[Ds Nome].[All]" allUniqueName="[Dim Cfop].[Ds Nome].[All]" dimensionUniqueName="[Dim Cfop]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Cfop].[Ds Objetivo]" caption="Ds Objetivo" attribute="1" defaultMemberUniqueName="[Dim Cfop].[Ds Objetivo].[All]" allUniqueName="[Dim Cfop].[Ds Objetivo].[All]" dimensionUniqueName="[Dim Cfop]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Cfop].[Ds Valor Referido]" caption="Ds Valor Referido" attribute="1" defaultMemberUniqueName="[Dim Cfop].[Ds Valor Referido].[All]" allUniqueName="[Dim Cfop].[Ds Valor Referido].[All]" dimensionUniqueName="[Dim Cfop]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Cfop].[Nr Cfop]" caption="Nr Cfop" attribute="1" defaultMemberUniqueName="[Dim Cfop].[Nr Cfop].[All]" allUniqueName="[Dim Cfop].[Nr Cfop].[All]" dimensionUniqueName="[Dim Cfop]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Data Despesa]" caption="Data Despesa" time="1" defaultMemberUniqueName="[Dim Date].[Data Despesa].[All]" allUniqueName="[Dim Date].[Data Despesa].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Datas]" caption="Datas" time="1" defaultMemberUniqueName="[Dim Date].[Datas].[All]" allUniqueName="[Dim Date].[Datas].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Datas Orçamento]" caption="Datas Orçamento" time="1" defaultMemberUniqueName="[Dim Date].[Datas Orçamento].[All]" allUniqueName="[Dim Date].[Datas Orçamento].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Ds Dia Semana]" caption="Ds Dia Semana" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Ds Dia Semana].[All]" allUniqueName="[Dim Date].[Ds Dia Semana].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Ds Month]" caption="Ds Month" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Ds Month].[All]" allUniqueName="[Dim Date].[Ds Month].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Ds Quarter]" caption="Ds Quarter" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Ds Quarter].[All]" allUniqueName="[Dim Date].[Ds Quarter].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Dt Date]" caption="Dt Date" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Dt Date].[All]" allUniqueName="[Dim Date].[Dt Date].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Nr Day]" caption="Nr Day" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Nr Day].[All]" allUniqueName="[Dim Date].[Nr Day].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Nr Dia Semana]" caption="Nr Dia Semana" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Nr Dia Semana].[All]" allUniqueName="[Dim Date].[Nr Dia Semana].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Nr Month]" caption="Nr Month" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Nr Month].[All]" allUniqueName="[Dim Date].[Nr Month].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Nr Quarter]" caption="Nr Quarter" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Nr Quarter].[All]" allUniqueName="[Dim Date].[Nr Quarter].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Nr Year]" caption="Nr Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Nr Year].[All]" allUniqueName="[Dim Date].[Nr Year].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Date].[nr_date]" caption="nr_date" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Dim Date].[nr_date].[All]" allUniqueName="[Dim Date].[nr_date].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[Apelido]" caption="Apelido" attribute="1" defaultMemberUniqueName="[Dim Produto].[Apelido].[All]" allUniqueName="[Dim Produto].[Apelido].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[Cor]" caption="Cor" attribute="1" defaultMemberUniqueName="[Dim Produto].[Cor].[All]" allUniqueName="[Dim Produto].[Cor].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[Departamento]" caption="Departamento" attribute="1" defaultMemberUniqueName="[Dim Produto].[Departamento].[All]" allUniqueName="[Dim Produto].[Departamento].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[Descrição do Produto]" caption="Descrição do Produto" attribute="1" defaultMemberUniqueName="[Dim Produto].[Descrição do Produto].[All]" allUniqueName="[Dim Produto].[Descrição do Produto].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[Descrição Loja]" caption="Descrição Loja" attribute="1" defaultMemberUniqueName="[Dim Produto].[Descrição Loja].[All]" allUniqueName="[Dim Produto].[Descrição Loja].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[É Item Ativo]" caption="É Item Ativo" attribute="1" defaultMemberUniqueName="[Dim Produto].[É Item Ativo].[All]" allUniqueName="[Dim Produto].[É Item Ativo].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[É Item Ruptura]" caption="É Item Ruptura" attribute="1" defaultMemberUniqueName="[Dim Produto].[É Item Ruptura].[All]" allUniqueName="[Dim Produto].[É Item Ruptura].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[É Kit WMS]" caption="É Kit WMS" attribute="1" defaultMemberUniqueName="[Dim Produto].[É Kit WMS].[All]" allUniqueName="[Dim Produto].[É Kit WMS].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[É Suspenso]" caption="É Suspenso" attribute="1" defaultMemberUniqueName="[Dim Produto].[É Suspenso].[All]" allUniqueName="[Dim Produto].[É Suspenso].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[Fabricante]" caption="Fabricante" attribute="1" defaultMemberUniqueName="[Dim Produto].[Fabricante].[All]" allUniqueName="[Dim Produto].[Fabricante].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[Família]" caption="Família" attribute="1" defaultMemberUniqueName="[Dim Produto].[Família].[All]" allUniqueName="[Dim Produto].[Família].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[Fornecedor]" caption="Fornecedor" attribute="1" defaultMemberUniqueName="[Dim Produto].[Fornecedor].[All]" allUniqueName="[Dim Produto].[Fornecedor].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[Gêneros de Produto]" caption="Gêneros de Produto" defaultMemberUniqueName="[Dim Produto].[Gêneros de Produto].[All]" allUniqueName="[Dim Produto].[Gêneros de Produto].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[Id Loja]" caption="Id Loja" attribute="1" defaultMemberUniqueName="[Dim Produto].[Id Loja].[All]" allUniqueName="[Dim Produto].[Id Loja].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[Marca]" caption="Marca" attribute="1" defaultMemberUniqueName="[Dim Produto].[Marca].[All]" allUniqueName="[Dim Produto].[Marca].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[Procedência]" caption="Procedência" attribute="1" defaultMemberUniqueName="[Dim Produto].[Procedência].[All]" allUniqueName="[Dim Produto].[Procedência].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[Produto Completo]" caption="Produto Completo" defaultMemberUniqueName="[Dim Produto].[Produto Completo].[All]" allUniqueName="[Dim Produto].[Produto Completo].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[Produto Completo - Textil]" caption="Produto Completo - Textil" defaultMemberUniqueName="[Dim Produto].[Produto Completo - Textil].[All]" allUniqueName="[Dim Produto].[Produto Completo - Textil].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[Produtos]" caption="Produtos" defaultMemberUniqueName="[Dim Produto].[Produtos].[All]" allUniqueName="[Dim Produto].[Produtos].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[Setor]" caption="Setor" attribute="1" defaultMemberUniqueName="[Dim Produto].[Setor].[All]" allUniqueName="[Dim Produto].[Setor].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[SKU]" caption="SKU" attribute="1" defaultMemberUniqueName="[Dim Produto].[SKU].[All]" allUniqueName="[Dim Produto].[SKU].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[Status ABC]" caption="Status ABC" attribute="1" defaultMemberUniqueName="[Dim Produto].[Status ABC].[All]" allUniqueName="[Dim Produto].[Status ABC].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[Status Sige]" caption="Status Sige" attribute="1" defaultMemberUniqueName="[Dim Produto].[Status Sige].[All]" allUniqueName="[Dim Produto].[Status Sige].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[Tamanho]" caption="Tamanho" attribute="1" defaultMemberUniqueName="[Dim Produto].[Tamanho].[All]" allUniqueName="[Dim Produto].[Tamanho].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Tipo Calculo].[Tipo Calculo]" caption="Tipo Calculo" attribute="1" defaultMemberUniqueName="[Dim Tipo Calculo].[Tipo Calculo].[All]" allUniqueName="[Dim Tipo Calculo].[Tipo Calculo].[All]" dimensionUniqueName="[Dim Tipo Calculo]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim UF].[Ds Regiao]" caption="Ds Regiao" attribute="1" defaultMemberUniqueName="[Dim UF].[Ds Regiao].[All]" allUniqueName="[Dim UF].[Ds Regiao].[All]" dimensionUniqueName="[Dim UF]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim UF].[Ds Uf]" caption="Ds Uf" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim UF].[Ds Uf].[All]" allUniqueName="[Dim UF].[Ds Uf].[All]" dimensionUniqueName="[Dim UF]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim UF].[UF]" caption="UF" defaultMemberUniqueName="[Dim UF].[UF].[All]" allUniqueName="[Dim UF].[UF].[All]" dimensionUniqueName="[Dim UF]" displayFolder="" count="3" unbalanced="0">
+      <fieldsUsage count="3">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim Produto].[Descrição Gênero]" caption="Descrição Gênero" attribute="1" defaultMemberUniqueName="[Dim Produto].[Descrição Gênero].[All]" allUniqueName="[Dim Produto].[Descrição Gênero].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[Dim Produto]" caption="Dim Produto" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Produto].[Dim Produto].[All]" allUniqueName="[Dim Produto].[Dim Produto].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Produto].[Gênero Produto]" caption="Gênero Produto" attribute="1" defaultMemberUniqueName="[Dim Produto].[Gênero Produto].[All]" allUniqueName="[Dim Produto].[Gênero Produto].[All]" dimensionUniqueName="[Dim Produto]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Tipo Calculo].[Nr Tipo Calculo]" caption="Nr Tipo Calculo" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Tipo Calculo].[Nr Tipo Calculo].[All]" allUniqueName="[Dim Tipo Calculo].[Nr Tipo Calculo].[All]" dimensionUniqueName="[Dim Tipo Calculo]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Vl Item Total]" caption="Vl Item Total" measure="1" displayFolder="" measureGroup="Vw Fact Gestao Icms" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Vl Base Icms]" caption="Vl Base Icms" measure="1" displayFolder="" measureGroup="Vw Fact Gestao Icms" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Qtde Fat]" caption="Qtde Fat" measure="1" displayFolder="" measureGroup="Vw Fact Gestao Icms" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Vl Cmv Estoque]" caption="Vl Cmv Estoque" measure="1" displayFolder="" measureGroup="Vw Fact Gestao Icms" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Vl Icms Entrada]" caption="Vl Icms Entrada" measure="1" displayFolder="" measureGroup="Vw Fact Gestao Icms" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Vl Icms Fatura]" caption="Vl Icms Fatura" measure="1" displayFolder="" measureGroup="Vw Fact Gestao Icms" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Vl Cred Icms]" caption="Vl Cred Icms" measure="1" displayFolder="" measureGroup="Vw Fact Gestao Icms" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="5"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Vl Apuracao Icms]" caption="Vl Apuracao Icms" measure="1" displayFolder="" measureGroup="Vw Fact Gestao Icms" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Vl Cred Presumido]" caption="Vl Cred Presumido" measure="1" displayFolder="" measureGroup="Vw Fact Gestao Icms" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Vl Icms Recolher]" caption="Vl Icms Recolher" measure="1" displayFolder="" measureGroup="Vw Fact Gestao Icms" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Vl Ajuste Credito]" caption="Vl Ajuste Credito" measure="1" displayFolder="" measureGroup="Vw Fact Gestao Icms" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Vl Icms Recolher Devolucao]" caption="Vl Icms Recolher Devolucao" measure="1" displayFolder="" measureGroup="Vw Fact Gestao Icms" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Vl Beneficio]" caption="Vl Beneficio" measure="1" displayFolder="" measureGroup="Vw Fact Gestao Icms" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="6">
+    <dimension name="Dim Cfop" uniqueName="[Dim Cfop]" caption="Dim Cfop"/>
+    <dimension name="Dim Date" uniqueName="[Dim Date]" caption="Dim Date"/>
+    <dimension name="Dim Produto" uniqueName="[Dim Produto]" caption="Dim Produto"/>
+    <dimension name="Dim Tipo Calculo" uniqueName="[Dim Tipo Calculo]" caption="Dim Tipo Calculo"/>
+    <dimension name="Dim UF" uniqueName="[Dim UF]" caption="Dim UF"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Vw Fact Gestao Icms" caption="Vw Fact Gestao Icms"/>
+  </measureGroups>
+  <maps count="5">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="4"/>
+  </maps>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica2" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:D6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
@@ -420,6 +589,141 @@
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
     <rowHierarchyUsage hierarchyUsage="42"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:D5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
+      <items count="3">
+        <item c="1" x="0"/>
+        <item c="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" dataSourceSort="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField fld="3" baseField="0" baseItem="0"/>
+    <dataField fld="4" baseField="0" baseItem="0"/>
+    <dataField fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="65">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy>
+      <mps count="1">
+        <mp field="2"/>
+      </mps>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="47"/>
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="-2"/>
@@ -714,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -790,7 +1094,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>4887411.230200001</v>
+        <v>4887411.2302000001</v>
       </c>
       <c r="C6" s="3">
         <v>370</v>
@@ -806,12 +1110,334 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A3:A4"/>
+      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" activeRow="3" previousRow="3" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="0"/>
+          </references>
+        </pivotArea>
+      </pivotSelection>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3814.9300000000003</v>
+      </c>
+      <c r="D3" s="3">
+        <v>354.475506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <v>168</v>
+      </c>
+      <c r="C4" s="3">
+        <v>90552.50009999999</v>
+      </c>
+      <c r="D4" s="3">
+        <v>9120.6889090000059</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>175</v>
+      </c>
+      <c r="C5" s="3">
+        <v>94367.430099999998</v>
+      </c>
+      <c r="D5" s="3">
+        <v>9475.1644150000066</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:K20"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
